--- a/lin_R1_by_R2 (3 by 1)100.xlsx
+++ b/lin_R1_by_R2 (3 by 1)100.xlsx
@@ -320,6 +320,134 @@
         <v>-0.13344422687133312</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.347413455618498</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.990920098442356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.05997237554583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.66475486552198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.94398173434944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.072283770554552</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.269508111494766</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.812425905099598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40.04947138274895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.41929725266593</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.47413455618498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79.90920098442355</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.5997237554583</v>
+      </c>
+      <c r="N3" t="n">
+        <v>126.6475486552198</v>
+      </c>
+      <c r="O3" t="n">
+        <v>159.4398173434944</v>
+      </c>
+      <c r="P3" t="n">
+        <v>200.72283770554552</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>252.69508111494767</v>
+      </c>
+      <c r="R3" t="n">
+        <v>318.124259050996</v>
+      </c>
+      <c r="S3" t="n">
+        <v>400.4947138274894</v>
+      </c>
+      <c r="T3" t="n">
+        <v>504.1929725266593</v>
+      </c>
+      <c r="U3" t="n">
+        <v>634.7413455618498</v>
+      </c>
+      <c r="V3" t="n">
+        <v>799.0920098442356</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1005.997237554583</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1266.475486552198</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1594.398173434944</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2007.228377055455</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2526.9508111494765</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3181.24259050996</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4004.9471382748943</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5041.929725266593</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6347.413455618498</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7990.920098442355</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10059.972375545829</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12664.75486552198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15943.981734349441</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20072.28377055455</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25269.508111494768</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31812.425905099597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>40049.47138274895</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>50419.29725266593</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>63474.13455618498</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>79909.20098442356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -587,6 +715,134 @@
       </c>
       <c r="AP2" t="n">
         <v>-0.1334573405490967</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.347413455618498</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.990920098442356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.05997237554583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.66475486552198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.94398173434944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.072283770554552</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.269508111494766</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.812425905099598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40.04947138274895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.41929725266593</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.47413455618498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79.90920098442355</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.5997237554583</v>
+      </c>
+      <c r="N3" t="n">
+        <v>126.6475486552198</v>
+      </c>
+      <c r="O3" t="n">
+        <v>159.4398173434944</v>
+      </c>
+      <c r="P3" t="n">
+        <v>200.72283770554552</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>252.69508111494767</v>
+      </c>
+      <c r="R3" t="n">
+        <v>318.124259050996</v>
+      </c>
+      <c r="S3" t="n">
+        <v>400.4947138274894</v>
+      </c>
+      <c r="T3" t="n">
+        <v>504.1929725266593</v>
+      </c>
+      <c r="U3" t="n">
+        <v>634.7413455618498</v>
+      </c>
+      <c r="V3" t="n">
+        <v>799.0920098442356</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1005.997237554583</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1266.475486552198</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1594.398173434944</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2007.228377055455</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2526.9508111494765</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3181.24259050996</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4004.9471382748943</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5041.929725266593</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6347.413455618498</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7990.920098442355</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10059.972375545829</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12664.75486552198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15943.981734349441</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20072.28377055455</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25269.508111494768</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31812.425905099597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>40049.47138274895</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>50419.29725266593</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>63474.13455618498</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>79909.20098442356</v>
       </c>
     </row>
   </sheetData>
@@ -858,6 +1114,134 @@
         <v>-0.13345921603059757</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.347413455618498</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.990920098442356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.05997237554583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.66475486552198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.94398173434944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.072283770554552</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.269508111494766</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.812425905099598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40.04947138274895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.41929725266593</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.47413455618498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79.90920098442355</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.5997237554583</v>
+      </c>
+      <c r="N3" t="n">
+        <v>126.6475486552198</v>
+      </c>
+      <c r="O3" t="n">
+        <v>159.4398173434944</v>
+      </c>
+      <c r="P3" t="n">
+        <v>200.72283770554552</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>252.69508111494767</v>
+      </c>
+      <c r="R3" t="n">
+        <v>318.124259050996</v>
+      </c>
+      <c r="S3" t="n">
+        <v>400.4947138274894</v>
+      </c>
+      <c r="T3" t="n">
+        <v>504.1929725266593</v>
+      </c>
+      <c r="U3" t="n">
+        <v>634.7413455618498</v>
+      </c>
+      <c r="V3" t="n">
+        <v>799.0920098442356</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1005.997237554583</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1266.475486552198</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1594.398173434944</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2007.228377055455</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2526.9508111494765</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3181.24259050996</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4004.9471382748943</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5041.929725266593</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6347.413455618498</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7990.920098442355</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10059.972375545829</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12664.75486552198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15943.981734349441</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20072.28377055455</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25269.508111494768</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31812.425905099597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>40049.47138274895</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>50419.29725266593</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>63474.13455618498</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>79909.20098442356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1127,6 +1511,134 @@
         <v>-0.1334442107460567</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.347413455618498</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.990920098442356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.05997237554583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.66475486552198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.94398173434944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.072283770554552</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.269508111494766</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.812425905099598</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40.04947138274895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.41929725266593</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63.47413455618498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79.90920098442355</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.5997237554583</v>
+      </c>
+      <c r="N3" t="n">
+        <v>126.6475486552198</v>
+      </c>
+      <c r="O3" t="n">
+        <v>159.4398173434944</v>
+      </c>
+      <c r="P3" t="n">
+        <v>200.72283770554552</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>252.69508111494767</v>
+      </c>
+      <c r="R3" t="n">
+        <v>318.124259050996</v>
+      </c>
+      <c r="S3" t="n">
+        <v>400.4947138274894</v>
+      </c>
+      <c r="T3" t="n">
+        <v>504.1929725266593</v>
+      </c>
+      <c r="U3" t="n">
+        <v>634.7413455618498</v>
+      </c>
+      <c r="V3" t="n">
+        <v>799.0920098442356</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1005.997237554583</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1266.475486552198</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1594.398173434944</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2007.228377055455</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2526.9508111494765</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3181.24259050996</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4004.9471382748943</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5041.929725266593</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6347.413455618498</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7990.920098442355</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10059.972375545829</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12664.75486552198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15943.981734349441</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20072.28377055455</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25269.508111494768</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31812.425905099597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>40049.47138274895</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>50419.29725266593</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>63474.13455618498</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>79909.20098442356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (3 by 1)100.xlsx
+++ b/lin_R1_by_R2 (3 by 1)100.xlsx
@@ -66,106 +66,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6666362096686471</v>
+        <v>1.6653667309178588</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6666183963885626</v>
+        <v>1.6646078831129012</v>
       </c>
       <c r="C1" t="n">
-        <v>1.6665901654678479</v>
+        <v>1.6634074146280993</v>
       </c>
       <c r="D1" t="n">
-        <v>1.666545425552158</v>
+        <v>1.661510366697605</v>
       </c>
       <c r="E1" t="n">
-        <v>1.666474525295796</v>
+        <v>1.658517648926385</v>
       </c>
       <c r="F1" t="n">
-        <v>1.666362175378425</v>
+        <v>1.6538091061594153</v>
       </c>
       <c r="G1" t="n">
-        <v>1.6661841615138504</v>
+        <v>1.646432209378544</v>
       </c>
       <c r="H1" t="n">
-        <v>1.6659021509507972</v>
+        <v>1.6349508520846316</v>
       </c>
       <c r="I1" t="n">
-        <v>1.6654555015151362</v>
+        <v>1.6172635488423124</v>
       </c>
       <c r="J1" t="n">
-        <v>1.6647483804213794</v>
+        <v>1.590440911622037</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6636296003541178</v>
+        <v>1.550717065714298</v>
       </c>
       <c r="L1" t="n">
-        <v>1.6618612880569925</v>
+        <v>1.4938965874955852</v>
       </c>
       <c r="M1" t="n">
-        <v>1.6590707798918403</v>
+        <v>1.4165109012873678</v>
       </c>
       <c r="N1" t="n">
-        <v>1.6546782005495695</v>
+        <v>1.3177963726344077</v>
       </c>
       <c r="O1" t="n">
-        <v>1.6477909631745362</v>
+        <v>1.2016860762498474</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6370586752468894</v>
+        <v>1.0770102840157718</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.6204942345603686</v>
+        <v>0.9546726866065463</v>
       </c>
       <c r="R1" t="n">
-        <v>1.5953023109869142</v>
+        <v>0.8432600243788181</v>
       </c>
       <c r="S1" t="n">
-        <v>1.5578334643022418</v>
+        <v>0.7463453939901392</v>
       </c>
       <c r="T1" t="n">
-        <v>1.5039052727292945</v>
+        <v>0.6630568005659531</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4298258144701765</v>
+        <v>0.5905898557943284</v>
       </c>
       <c r="V1" t="n">
-        <v>1.334268829996486</v>
+        <v>0.5264397483670534</v>
       </c>
       <c r="W1" t="n">
-        <v>1.2203640507195817</v>
+        <v>0.4691768825608618</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0962974715589304</v>
+        <v>0.4180674504723355</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9729369079101834</v>
+        <v>0.3725308513579069</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8594773068276453</v>
+        <v>0.3319737744773442</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7603037446802552</v>
+        <v>0.2958420059465924</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.67508555500898</v>
+        <v>0.26364839314319066</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6011418762012957</v>
+        <v>0.23496217345298062</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5358318774694953</v>
+        <v>0.20939999646414736</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4775674210358644</v>
+        <v>0.18662076774076503</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4255494480419958</v>
+        <v>0.16632091002823413</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.37919451253208264</v>
+        <v>0.14823014485755295</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33790941706243105</v>
+        <v>0.13210778377867605</v>
       </c>
       <c r="AI1" t="n">
         <v>0.30113044825421936</v>
@@ -194,106 +194,106 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.87280339954403</v>
+        <v>-11.64485279410039</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.27068982726825</v>
+        <v>-9.267954042063185</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.878210122846006</v>
+        <v>-7.384567763593932</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.035419409685346</v>
+        <v>-5.894357378506345</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.218152905272156</v>
+        <v>-4.717885777635101</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.01011209371953</v>
+        <v>-3.792347943414691</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.08069502986665</v>
+        <v>-3.06815518906892</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.167390018499987</v>
+        <v>-2.5061608394938975</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.061794791183287</v>
+        <v>-2.0753340887880647</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.598516102407984</v>
+        <v>-1.7506969854086036</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.646357525295283</v>
+        <v>-1.511366145674145</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.101324040646655</v>
+        <v>-1.3386529302737977</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.881066762974429</v>
+        <v>-1.214471679570286</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.920464084009224</v>
+        <v>-1.120767670468684</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.168089258547996</v>
+        <v>-1.0408358808413058</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.5833502813259948</v>
+        <v>-0.9623842301648429</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.13410707773888</v>
+        <v>-0.8801907179942917</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.7945795351493214</v>
+        <v>-0.7957112833711301</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.5433805650402135</v>
+        <v>-0.7136037440553259</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.361601109546029</v>
+        <v>-0.6378863250666217</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.2311366335206333</v>
+        <v>-0.5701312293385902</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.1338962742309475</v>
+        <v>-0.5098960101275345</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.052796984529377</v>
+        <v>-0.4560676159211862</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9746491565148032</v>
+        <v>-0.4077604041061645</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8930738371645133</v>
+        <v>-0.36440979304594073</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8086727271373549</v>
+        <v>-0.3255604465774295</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7258891152431255</v>
+        <v>-0.29077400042383067</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6490216784783994</v>
+        <v>-0.25964156350136264</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.58003544368303</v>
+        <v>-0.2317926299390091</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5187142567704391</v>
+        <v>-0.20689160344277424</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4639683389972907</v>
+        <v>-0.18463479387384707</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.41485441895039993</v>
+        <v>-0.16474797651002226</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.37077199052150667</v>
+        <v>-0.1469839439954164</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.33125940029753687</v>
+        <v>-0.13112016210295352</v>
       </c>
       <c r="AI2" t="n">
         <v>-0.2958757469106756</v>
@@ -322,106 +322,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.347413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>7.990920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>10.05997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>20.072283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>25.269508111494766</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>31.812425905099598</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>40.04947138274895</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>50.41929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>63.47413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>79.90920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>100.5997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>200.72283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.69508111494767</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>318.124259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>400.4947138274894</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>504.1929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>634.7413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>799.0920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1005.997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1266.475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>1594.398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2007.228377055455</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>2526.9508111494765</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>3181.24259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>4004.9471382748943</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>5041.929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>6347.413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>7990.920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>10059.972375545829</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>12664.75486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -463,106 +463,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6667446383123088</v>
+        <v>1.6697219543196191</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6667900910278275</v>
+        <v>1.6712696150234403</v>
       </c>
       <c r="C1" t="n">
-        <v>1.666861899200264</v>
+        <v>1.673409541006641</v>
       </c>
       <c r="D1" t="n">
-        <v>1.66697513342208</v>
+        <v>1.6761320861080762</v>
       </c>
       <c r="E1" t="n">
-        <v>1.6671531654044114</v>
+        <v>1.6791227397657305</v>
       </c>
       <c r="F1" t="n">
-        <v>1.6674317682443636</v>
+        <v>1.6814986635625297</v>
       </c>
       <c r="G1" t="n">
-        <v>1.6678645353658863</v>
+        <v>1.6815631981659211</v>
       </c>
       <c r="H1" t="n">
-        <v>1.6685289315555674</v>
+        <v>1.6767161600611609</v>
       </c>
       <c r="I1" t="n">
-        <v>1.669530152433723</v>
+        <v>1.6635458056626367</v>
       </c>
       <c r="J1" t="n">
-        <v>1.670995115942042</v>
+        <v>1.6379689359753982</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6730399625148271</v>
+        <v>1.5953865794423994</v>
       </c>
       <c r="L1" t="n">
-        <v>1.67568296709584</v>
+        <v>1.5312038461546238</v>
       </c>
       <c r="M1" t="n">
-        <v>1.678672346130695</v>
+        <v>1.4423054709370409</v>
       </c>
       <c r="N1" t="n">
-        <v>1.6812307444491836</v>
+        <v>1.3296207817954084</v>
       </c>
       <c r="O1" t="n">
-        <v>1.6817976483896024</v>
+        <v>1.2003891963789173</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6779093239843696</v>
+        <v>1.067232683426283</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.6662691139739036</v>
+        <v>0.9428580208540797</v>
       </c>
       <c r="R1" t="n">
-        <v>1.6428892030763866</v>
+        <v>0.8342472206192937</v>
       </c>
       <c r="S1" t="n">
-        <v>1.6032318902280072</v>
+        <v>0.741467013125997</v>
       </c>
       <c r="T1" t="n">
-        <v>1.5426357849745858</v>
+        <v>0.6610192608935308</v>
       </c>
       <c r="U1" t="n">
-        <v>1.457612424842396</v>
+        <v>0.5896402710135535</v>
       </c>
       <c r="V1" t="n">
-        <v>1.348284723263702</v>
+        <v>0.5257071009120216</v>
       </c>
       <c r="W1" t="n">
-        <v>1.220868168132016</v>
+        <v>0.46856072487045103</v>
       </c>
       <c r="X1" t="n">
-        <v>1.087410973472463</v>
+        <v>0.41762114479441226</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9610445796672642</v>
+        <v>0.37222570767030105</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8498568266531642</v>
+        <v>0.331761096843547</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7548324280911725</v>
+        <v>0.2956924096822306</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6727370030160604</v>
+        <v>0.26354328446706843</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6001084770115274</v>
+        <v>0.2348882727459371</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5350839563047506</v>
+        <v>0.20934799286985542</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.47692842088834886</v>
+        <v>0.18658414841394963</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.42507712055479174</v>
+        <v>0.1662951082180553</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3788712247839155</v>
+        <v>0.1482119552846616</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33768486600242403</v>
+        <v>0.1320949545474949</v>
       </c>
       <c r="AI1" t="n">
         <v>0.3009725225825527</v>
@@ -591,106 +591,106 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.87063181407086</v>
+        <v>-11.631767709367528</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.26795914003842</v>
+        <v>-9.2522440273455</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.87477871614878</v>
+        <v>-7.366188402886867</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.031112100518015</v>
+        <v>-5.873674330611745</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.212755278968793</v>
+        <v>-4.69590929435939</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.003366245414757</v>
+        <v>-3.7708959242890923</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.072299658869113</v>
+        <v>-3.049785992054283</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.157010588285639</v>
+        <v>-2.493789603109378</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.049093891762153</v>
+        <v>-2.0716439831247357</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.583219874673105</v>
+        <v>-1.7575702122996026</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.6283778084249025</v>
+        <v>-1.529431627231494</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.0809482367588465</v>
+        <v>-1.3668574587470081</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.859191846966805</v>
+        <v>-1.249641214307647</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.8987806028998016</v>
+        <v>-1.1575420956005482</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.149058948890842</v>
+        <v>-1.072789623938928</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.5698691815960477</v>
+        <v>-0.984615237897295</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.128933807448518</v>
+        <v>-0.8917954738625994</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.7997513752154084</v>
+        <v>-0.7997245457093953</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.559746075791122</v>
+        <v>-0.7143405496853886</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.388395687740265</v>
+        <v>-0.6382409608424855</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.265534159593612</v>
+        <v>-0.5708752754169453</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.1708392736342192</v>
+        <v>-0.5107072855184371</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.0858846821885682</v>
+        <v>-0.45666271703393924</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9985501062695312</v>
+        <v>-0.40815267835641283</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9061913630457711</v>
+        <v>-0.36468291686623105</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.813566619190418</v>
+        <v>-0.3257559407694671</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7268859891174074</v>
+        <v>-0.29091285313250226</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6493384635368098</v>
+        <v>-0.2597399536481236</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5807297058510204</v>
+        <v>-0.23186236558666914</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5195421404781139</v>
+        <v>-0.20694101603067577</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4646010496262071</v>
+        <v>-0.18466979899450706</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.41527173900260084</v>
+        <v>-0.1647727712964442</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.37105973802768843</v>
+        <v>-0.14700150456153227</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3314652880754912</v>
+        <v>-0.13113259801198718</v>
       </c>
       <c r="AI2" t="n">
         <v>-0.2960221515028093</v>
@@ -719,106 +719,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.347413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>7.990920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>10.05997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>20.072283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>25.269508111494766</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>31.812425905099598</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>40.04947138274895</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>50.41929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>63.47413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>79.90920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>100.5997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>200.72283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.69508111494767</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>318.124259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>400.4947138274894</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>504.1929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>634.7413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>799.0920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1005.997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1266.475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>1594.398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2007.228377055455</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>2526.9508111494765</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>3181.24259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>4004.9471382748943</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>5041.929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>6347.413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>7990.920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>10059.972375545829</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>12664.75486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -860,106 +860,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.755448490739735</v>
+        <v>1.7511809061371741</v>
       </c>
       <c r="B1" t="n">
-        <v>1.7553859796755737</v>
+        <v>1.748795543071569</v>
       </c>
       <c r="C1" t="n">
-        <v>1.7552870726513305</v>
+        <v>1.7452409442964267</v>
       </c>
       <c r="D1" t="n">
-        <v>1.7551307316092002</v>
+        <v>1.740087270084705</v>
       </c>
       <c r="E1" t="n">
-        <v>1.7548839856939504</v>
+        <v>1.7328563733457738</v>
       </c>
       <c r="F1" t="n">
-        <v>1.7544954990908999</v>
+        <v>1.7230249454581994</v>
       </c>
       <c r="G1" t="n">
-        <v>1.7538861592192487</v>
+        <v>1.7098849739227742</v>
       </c>
       <c r="H1" t="n">
-        <v>1.7529359984587822</v>
+        <v>1.692170124901101</v>
       </c>
       <c r="I1" t="n">
-        <v>1.7514676123676578</v>
+        <v>1.6675912770720622</v>
       </c>
       <c r="J1" t="n">
-        <v>1.7492286100403571</v>
+        <v>1.632650611853746</v>
       </c>
       <c r="K1" t="n">
-        <v>1.7458801096580858</v>
+        <v>1.583011631626187</v>
       </c>
       <c r="L1" t="n">
-        <v>1.7410026060232677</v>
+        <v>1.5145138477320412</v>
       </c>
       <c r="M1" t="n">
-        <v>1.734123493719469</v>
+        <v>1.4248347558048633</v>
       </c>
       <c r="N1" t="n">
-        <v>1.7247302664166229</v>
+        <v>1.3153938837793093</v>
       </c>
       <c r="O1" t="n">
-        <v>1.7121618101498384</v>
+        <v>1.1923169102777351</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6952693513883053</v>
+        <v>1.065233023082964</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.6719445345850437</v>
+        <v>0.9440829980175464</v>
       </c>
       <c r="R1" t="n">
-        <v>1.63886681038908</v>
+        <v>0.8356495685989025</v>
       </c>
       <c r="S1" t="n">
-        <v>1.5917793401323657</v>
+        <v>0.74184133188127</v>
       </c>
       <c r="T1" t="n">
-        <v>1.526401422164363</v>
+        <v>0.6607472074652109</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4400002039567894</v>
+        <v>0.5893510564609087</v>
       </c>
       <c r="V1" t="n">
-        <v>1.3333159442007334</v>
+        <v>0.5255748006594949</v>
       </c>
       <c r="W1" t="n">
-        <v>1.2117671095626306</v>
+        <v>0.468495631469009</v>
       </c>
       <c r="X1" t="n">
-        <v>1.084616578975873</v>
+        <v>0.41756965431879883</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9620009815552987</v>
+        <v>0.3721869351647183</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8513644087043936</v>
+        <v>0.3317339182222505</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7553645221067965</v>
+        <v>0.29567311062541773</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6725158439546235</v>
+        <v>0.26352956341804074</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5997984822263387</v>
+        <v>0.23487852886838953</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5349316030171745</v>
+        <v>0.2093410750079157</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4768587242525914</v>
+        <v>0.18657923850825883</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.425024025865645</v>
+        <v>0.16629162440667913</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.37883037717548057</v>
+        <v>0.1482094839636794</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33765617702260053</v>
+        <v>0.13209320184418424</v>
       </c>
       <c r="AI1" t="n">
         <v>0.3009521890142839</v>
@@ -988,106 +988,106 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.8751511462575</v>
+        <v>-11.659437614476843</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.2736432764099</v>
+        <v>-9.285794848488058</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.881923937822386</v>
+        <v>-7.406081136794337</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.04008616391825</v>
+        <v>-5.919798448204628</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.2240108185356</v>
+        <v>-4.74724983658631</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.01745280069383</v>
+        <v>-3.8253610128526683</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.08986963320279</v>
+        <v>-3.1044365459043477</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.178809892009767</v>
+        <v>-2.5454908549464927</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.07592080089541</v>
+        <v>-2.1177492094976773</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.615826575233175</v>
+        <v>-1.7961650752624128</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.667284207818109</v>
+        <v>-1.5591235786439026</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.1261541265314206</v>
+        <v>-1.386591784251995</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.909839584877936</v>
+        <v>-1.2591002564340625</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.952941175902454</v>
+        <v>-1.1581621360923173</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.2038891340738846</v>
+        <v>-1.0683287608584984</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.6222140960034492</v>
+        <v>-0.979774949064789</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.1760415019702157</v>
+        <v>-0.8894712242968564</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.8396010441130333</v>
+        <v>-0.7998147887208338</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.590884863107759</v>
+        <v>-0.7152430001114021</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.409710188713749</v>
+        <v>-0.6388416005025754</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.2765365976525114</v>
+        <v>-0.5710724837932789</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.172628146328341</v>
+        <v>-0.5107785690530142</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.0818920056181172</v>
+        <v>-0.4567328069122577</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9935059918878676</v>
+        <v>-0.4082113721911932</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9034186741261643</v>
+        <v>-0.36472303523173394</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8133797728590064</v>
+        <v>-0.3257840096112365</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.7277630738878782</v>
+        <v>-0.29093280739332744</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6500128146269692</v>
+        <v>-0.25975407686612406</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5809712488270653</v>
+        <v>-0.23187236466449415</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5196189626074055</v>
+        <v>-0.2069480952876317</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4646708090123622</v>
+        <v>-0.18467481096096905</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4153333467866478</v>
+        <v>-0.16477631963110168</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.37110231609853006</v>
+        <v>-0.14700401666570714</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.33149486895622693</v>
+        <v>-0.13113437648816256</v>
       </c>
       <c r="AI2" t="n">
         <v>-0.2960431900654539</v>
@@ -1116,106 +1116,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.347413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>7.990920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>10.05997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>20.072283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>25.269508111494766</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>31.812425905099598</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>40.04947138274895</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>50.41929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>63.47413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>79.90920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>100.5997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>200.72283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.69508111494767</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>318.124259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>400.4947138274894</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>504.1929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>634.7413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>799.0920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1005.997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1266.475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>1594.398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2007.228377055455</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>2526.9508111494765</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>3181.24259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>4004.9471382748943</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>5041.929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>6347.413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>7990.920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>10059.972375545829</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>12664.75486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -1257,106 +1257,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6666216891083199</v>
+        <v>1.6648523499227639</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6665954428148435</v>
+        <v>1.6638805684592364</v>
       </c>
       <c r="C1" t="n">
-        <v>1.6665539366536797</v>
+        <v>1.6624492376197257</v>
       </c>
       <c r="D1" t="n">
-        <v>1.6664883820338106</v>
+        <v>1.6603939133396015</v>
       </c>
       <c r="E1" t="n">
-        <v>1.6663850526781967</v>
+        <v>1.657500342185775</v>
       </c>
       <c r="F1" t="n">
-        <v>1.6662226910146383</v>
+        <v>1.6534146931428189</v>
       </c>
       <c r="G1" t="n">
-        <v>1.6659688080827555</v>
+        <v>1.64741094647927</v>
       </c>
       <c r="H1" t="n">
-        <v>1.665574753888357</v>
+        <v>1.6380330933170744</v>
       </c>
       <c r="I1" t="n">
-        <v>1.6649699006087177</v>
+        <v>1.6228034222885552</v>
       </c>
       <c r="J1" t="n">
-        <v>1.6640562246209425</v>
+        <v>1.598196717563158</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6627054298289152</v>
+        <v>1.559892031133573</v>
       </c>
       <c r="L1" t="n">
-        <v>1.6607582535724015</v>
+        <v>1.5033320274867235</v>
       </c>
       <c r="M1" t="n">
-        <v>1.6580112682085033</v>
+        <v>1.4248790008246959</v>
       </c>
       <c r="N1" t="n">
-        <v>1.6541430689606607</v>
+        <v>1.3237742641329397</v>
       </c>
       <c r="O1" t="n">
-        <v>1.648506419845521</v>
+        <v>1.2042591194680392</v>
       </c>
       <c r="P1" t="n">
-        <v>1.639781208687045</v>
+        <v>1.0760414852810354</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.625656242020429</v>
+        <v>0.9513706780005993</v>
       </c>
       <c r="R1" t="n">
-        <v>1.6027572287326504</v>
+        <v>0.8396913443685835</v>
       </c>
       <c r="S1" t="n">
-        <v>1.566858993642578</v>
+        <v>0.7440566542685194</v>
       </c>
       <c r="T1" t="n">
-        <v>1.5133847309956134</v>
+        <v>0.6622238652233488</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4384465787695955</v>
+        <v>0.5904868648002112</v>
       </c>
       <c r="V1" t="n">
-        <v>1.3406932808083845</v>
+        <v>0.5264273989844998</v>
       </c>
       <c r="W1" t="n">
-        <v>1.223499394504657</v>
+        <v>0.4691027640273415</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0958292329015527</v>
+        <v>0.4179985294314433</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9698666165991093</v>
+        <v>0.37249214764445165</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8558198099647654</v>
+        <v>0.3319511376310436</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.757771821796294</v>
+        <v>0.2958275184833672</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6740654821277949</v>
+        <v>0.26363927925018704</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6009795539017839</v>
+        <v>0.2349564566930903</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5358264757828723</v>
+        <v>0.20939640446281801</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.47749939860524104</v>
+        <v>0.18661851021457282</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4254761765329554</v>
+        <v>0.16631949065722343</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.37915193044289897</v>
+        <v>0.14822925214689714</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33788508554563224</v>
+        <v>0.1321072221296598</v>
       </c>
       <c r="AI1" t="n">
         <v>0.301114922071034</v>
@@ -1385,106 +1385,106 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.87280222910992</v>
+        <v>-11.644559241992113</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.270687495540336</v>
+        <v>-9.267403816767446</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.87820548177496</v>
+        <v>-7.3835705632293696</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.0354101852294</v>
+        <v>-5.892637362104593</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.218134612178925</v>
+        <v>-4.715120024904614</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.010075944919247</v>
+        <v>-3.7883027595328187</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.080623993782222</v>
+        <v>-3.0629134288006576</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.167251638902222</v>
+        <v>-2.5003021972081494</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.06152886095803</v>
+        <v>-2.0698765735227043</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.598015619802927</v>
+        <v>-1.7467893438243707</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.645444940651968</v>
+        <v>-1.509941032440858</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.0997360024316025</v>
+        <v>-1.340216449705703</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.878481595254331</v>
+        <v>-1.2190139186551494</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.916620996518467</v>
+        <v>-1.1276780398516548</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.163007061576324</v>
+        <v>-1.0487916446733156</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.5775285619065964</v>
+        <v>-0.9694744939739587</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.128511995969775</v>
+        <v>-0.8846991911884854</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.7903642018982326</v>
+        <v>-0.7972313202969368</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.5415287173921783</v>
+        <v>-0.7132301856288945</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.3626920554428121</v>
+        <v>-0.63712432904094</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.2352441564342167</v>
+        <v>-0.569761160783103</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.1405098665433626</v>
+        <v>-0.5098632323455577</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.0607067326181832</v>
+        <v>-0.456098250813563</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9820028475548883</v>
+        <v>-0.40776239939695275</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8980483225308887</v>
+        <v>-0.3644044256371744</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8106105938839878</v>
+        <v>-0.32555847931556314</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.725702381973708</v>
+        <v>-0.2907731582957184</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6482433580716624</v>
+        <v>-0.2596410515563661</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5795935984881008</v>
+        <v>-0.23179234880614855</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5186494390493454</v>
+        <v>-0.20689144830235842</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.46400051297927475</v>
+        <v>-0.18463470792079917</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4148601367332915</v>
+        <v>-0.16474792882983938</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3707663725919389</v>
+        <v>-0.14698391750609557</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.33125702503378207</v>
+        <v>-0.1311201473670591</v>
       </c>
       <c r="AI2" t="n">
         <v>-0.2958748331521427</v>
@@ -1513,106 +1513,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.347413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>7.990920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>10.05997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>15.94398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>20.072283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>25.269508111494766</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>31.812425905099598</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>40.04947138274895</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>50.41929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>63.47413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>79.90920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>100.5997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>200.72283770554552</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.69508111494767</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>318.124259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>400.4947138274894</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>504.1929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>634.7413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>799.0920098442356</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1005.997237554583</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1266.475486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>1594.398173434944</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2007.228377055455</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>2526.9508111494765</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>3181.24259050996</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>4004.9471382748943</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>5041.929725266593</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>6347.413455618498</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>7990.920098442355</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>10059.972375545829</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>12664.75486552198</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>

--- a/lin_R1_by_R2 (3 by 1)100.xlsx
+++ b/lin_R1_by_R2 (3 by 1)100.xlsx
@@ -322,106 +322,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>41.492943383683034</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>52.23652083585523</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>65.76188350397364</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>82.78930627060006</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>104.22556148886862</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>131.2122079168522</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>165.18638288414508</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>207.9573350952113</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>261.8027737203565</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>329.590164714755</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>414.92943383683036</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>522.3652083585523</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>657.6188350397364</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>827.8930627060007</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1042.255614888686</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1312.1220791685223</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>1651.8638288414506</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>2079.573350952113</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>2618.0277372035653</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>3295.90164714755</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>4149.294338368303</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>5223.652083585523</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>6576.188350397364</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>8278.930627060006</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>10422.556148886863</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>13121.220791685222</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>16518.638288414506</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>20795.73350952113</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>26180.277372035653</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>32959.0164714755</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>41492.943383683036</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>52236.520835855226</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>65761.88350397364</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>82789.30627060006</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -719,106 +719,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>41.492943383683034</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>52.23652083585523</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>65.76188350397364</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>82.78930627060006</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>104.22556148886862</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>131.2122079168522</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>165.18638288414508</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>207.9573350952113</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>261.8027737203565</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>329.590164714755</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>414.92943383683036</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>522.3652083585523</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>657.6188350397364</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>827.8930627060007</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1042.255614888686</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1312.1220791685223</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>1651.8638288414506</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>2079.573350952113</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>2618.0277372035653</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>3295.90164714755</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>4149.294338368303</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>5223.652083585523</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>6576.188350397364</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>8278.930627060006</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>10422.556148886863</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>13121.220791685222</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>16518.638288414506</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>20795.73350952113</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>26180.277372035653</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>32959.0164714755</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>41492.943383683036</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>52236.520835855226</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>65761.88350397364</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>82789.30627060006</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -1116,106 +1116,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>41.492943383683034</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>52.23652083585523</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>65.76188350397364</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>82.78930627060006</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>104.22556148886862</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>131.2122079168522</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>165.18638288414508</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>207.9573350952113</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>261.8027737203565</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>329.590164714755</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>414.92943383683036</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>522.3652083585523</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>657.6188350397364</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>827.8930627060007</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1042.255614888686</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1312.1220791685223</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>1651.8638288414506</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>2079.573350952113</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>2618.0277372035653</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>3295.90164714755</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>4149.294338368303</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>5223.652083585523</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>6576.188350397364</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>8278.930627060006</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>10422.556148886863</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>13121.220791685222</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>16518.638288414506</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>20795.73350952113</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>26180.277372035653</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>32959.0164714755</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>41492.943383683036</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>52236.520835855226</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>65761.88350397364</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>82789.30627060006</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
@@ -1513,106 +1513,106 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>41.492943383683034</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>52.23652083585523</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>65.76188350397364</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>82.78930627060006</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>104.22556148886862</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>131.2122079168522</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>165.18638288414508</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>207.9573350952113</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>261.8027737203565</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>329.590164714755</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>414.92943383683036</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>522.3652083585523</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>657.6188350397364</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>827.8930627060007</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1042.255614888686</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1312.1220791685223</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>1651.8638288414506</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>2079.573350952113</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>2618.0277372035653</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>3295.90164714755</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>4149.294338368303</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>5223.652083585523</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>6576.188350397364</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>8278.930627060006</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>10422.556148886863</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>13121.220791685222</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>16518.638288414506</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>20795.73350952113</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>26180.277372035653</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>32959.0164714755</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>41492.943383683036</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>52236.520835855226</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>65761.88350397364</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>82789.30627060006</v>
       </c>
       <c r="AI3" t="n">
         <v>15943.981734349441</v>
